--- a/output/3_Regression/h19/h19table_rmse.xlsx
+++ b/output/3_Regression/h19/h19table_rmse.xlsx
@@ -435,13 +435,13 @@
         <v>7.740164735448812</v>
       </c>
       <c r="E2">
-        <v>0.3380316329158693</v>
+        <v>0.932841220035217</v>
       </c>
       <c r="F2">
-        <v>0.44223611458169</v>
+        <v>1.698165286746292</v>
       </c>
       <c r="G2">
-        <v>0.7903534463071121</v>
+        <v>0.7824760896642482</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -458,13 +458,13 @@
         <v>4.226799763877299</v>
       </c>
       <c r="E3">
-        <v>0.1623682419078977</v>
+        <v>0.5167425568691858</v>
       </c>
       <c r="F3">
-        <v>0.2557274247375427</v>
+        <v>0.9144888934421463</v>
       </c>
       <c r="G3">
-        <v>0.4667987984478732</v>
+        <v>0.3424257546677267</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,13 +481,13 @@
         <v>3.068298031883919</v>
       </c>
       <c r="E4">
-        <v>0.1085887608345702</v>
+        <v>0.3226591463466644</v>
       </c>
       <c r="F4">
-        <v>0.1942495275401561</v>
+        <v>0.5911936327194236</v>
       </c>
       <c r="G4">
-        <v>0.3901432329117711</v>
+        <v>0.3939334994408836</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -504,13 +504,13 @@
         <v>2.438948293060066</v>
       </c>
       <c r="E5">
-        <v>0.0786348076012884</v>
+        <v>0.2355966252533196</v>
       </c>
       <c r="F5">
-        <v>0.1637298978587124</v>
+        <v>0.4261368538005249</v>
       </c>
       <c r="G5">
-        <v>0.3699636778471279</v>
+        <v>0.8376797797978824</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -527,13 +527,13 @@
         <v>2.016796321006429</v>
       </c>
       <c r="E6">
-        <v>0.06397826554215133</v>
+        <v>0.1964624509055692</v>
       </c>
       <c r="F6">
-        <v>0.1433605815669758</v>
+        <v>0.3412727749424723</v>
       </c>
       <c r="G6">
-        <v>0.3762499970737692</v>
+        <v>1.02123506770038</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -550,13 +550,13 @@
         <v>1.694443564413798</v>
       </c>
       <c r="E7">
-        <v>0.06016341558014978</v>
+        <v>0.1795328878075478</v>
       </c>
       <c r="F7">
-        <v>0.1285364667963095</v>
+        <v>0.3063302773460297</v>
       </c>
       <c r="G7">
-        <v>0.3198430261629907</v>
+        <v>1.000188032672142</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -573,13 +573,13 @@
         <v>1.432095621410246</v>
       </c>
       <c r="E8">
-        <v>0.05476038702529159</v>
+        <v>0.1815419023020938</v>
       </c>
       <c r="F8">
-        <v>0.1169693658052613</v>
+        <v>0.3012626346393246</v>
       </c>
       <c r="G8">
-        <v>0.4358873511620742</v>
+        <v>1.052640865890059</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -596,13 +596,13 @@
         <v>1.230692193784461</v>
       </c>
       <c r="E9">
-        <v>0.05599848098905867</v>
+        <v>0.1858215630271103</v>
       </c>
       <c r="F9">
-        <v>0.1082506342797096</v>
+        <v>0.3122408585130907</v>
       </c>
       <c r="G9">
-        <v>0.4332477064721464</v>
+        <v>0.9535091838505024</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -619,13 +619,13 @@
         <v>1.12430344048718</v>
       </c>
       <c r="E10">
-        <v>0.05526814215894357</v>
+        <v>0.2018361044290781</v>
       </c>
       <c r="F10">
-        <v>0.1005236030557448</v>
+        <v>0.3297089502895495</v>
       </c>
       <c r="G10">
-        <v>0.4070529046413303</v>
+        <v>0.9455201437499743</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -642,13 +642,13 @@
         <v>1.157450150191913</v>
       </c>
       <c r="E11">
-        <v>0.06004927533986484</v>
+        <v>0.2145122438989231</v>
       </c>
       <c r="F11">
-        <v>0.09418723996767649</v>
+        <v>0.3454966683296719</v>
       </c>
       <c r="G11">
-        <v>0.3652870650787861</v>
+        <v>0.9077079709842907</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -665,13 +665,13 @@
         <v>1.33752889177757</v>
       </c>
       <c r="E12">
-        <v>0.06080064258068407</v>
+        <v>0.2290362093057831</v>
       </c>
       <c r="F12">
-        <v>0.08903873030637942</v>
+        <v>0.3648377372647127</v>
       </c>
       <c r="G12">
-        <v>0.3292128818222866</v>
+        <v>0.869794146466028</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -688,13 +688,13 @@
         <v>1.627342499406146</v>
       </c>
       <c r="E13">
-        <v>0.06316601258804518</v>
+        <v>0.2464049300340354</v>
       </c>
       <c r="F13">
-        <v>0.08478775915792959</v>
+        <v>0.3851995725874983</v>
       </c>
       <c r="G13">
-        <v>0.2979012040445789</v>
+        <v>0.842307443262951</v>
       </c>
     </row>
   </sheetData>
